--- a/biology/Médecine/St_George's,_University_of_London/St_George's,_University_of_London.xlsx
+++ b/biology/Médecine/St_George's,_University_of_London/St_George's,_University_of_London.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>St_George%27s,_University_of_London</t>
+          <t>St_George's,_University_of_London</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">St George's, Université de Londres (légalement  'St George's Hospital Medical School' , informellement  'St George's'  ou  'SGUL' )[1], est une faculté de médecine située à Tooting au sud de Londres et est un collège constituant de l'Université de Londres.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">St George's, Université de Londres (légalement  'St George's Hospital Medical School' , informellement  'St George's'  ou  'SGUL' ), est une faculté de médecine située à Tooting au sud de Londres et est un collège constituant de l'Université de Londres.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>St_George%27s,_University_of_London</t>
+          <t>St_George's,_University_of_London</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">St George's a ses origines en 1733 et a été la deuxième institution en Angleterre à offrir des cours de formation formelle pour les médecins (après l'Université d'Oxford)[2]. St George's affilié à l'Université de Londres peu de temps après la création de cette dernière en 1836[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">St George's a ses origines en 1733 et a été la deuxième institution en Angleterre à offrir des cours de formation formelle pour les médecins (après l'Université d'Oxford). St George's affilié à l'Université de Londres peu de temps après la création de cette dernière en 1836.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>St_George%27s,_University_of_London</t>
+          <t>St_George's,_University_of_London</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Étudiants célèbres et chercheurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>John HunterHenry Gray
 Harry HillEdward Jenner
